--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\pointy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07430BAB-BFB2-481E-B8F1-A60FE0636603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E313CC0-96E5-40BE-A8BA-04F1D9F9D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2625" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9096" yWindow="2904" windowWidth="13944" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wysokosci" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
+    <sheet name="with_bug" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>ow-p21</t>
   </si>
@@ -71,6 +72,15 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>adaddw</t>
+  </si>
+  <si>
+    <t>5824354.0723</t>
+  </si>
+  <si>
+    <t>3q3</t>
   </si>
 </sst>
 </file>
@@ -575,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C50E41-72E8-403E-AE81-64AABCC6AFB8}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,4 +729,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2488C64-44DF-455C-A958-8344855C2AC5}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5580652.2873999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5821887.6447999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5578449.6908999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5823076.0921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5578447.0045999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5823083.7895999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5576674.5014000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5823817.0061999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5575619.0859000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5824348.0288000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5574476.8038999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5824943.3712999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5574491.6003999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5824973.1221000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5574497.2929999996</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5574511.6316999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5824987.5932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5573926.3028999995</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5825135.8737000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\Documents\GitHub\pointy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E313CC0-96E5-40BE-A8BA-04F1D9F9D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5032D0C-3C27-4855-9225-FF96D16807E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9096" yWindow="2904" windowWidth="13944" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wysokosci" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
-    <sheet name="with_bug" sheetId="3" r:id="rId3"/>
+    <sheet name="with_bug" sheetId="3" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId3"/>
+    <sheet name="with_null_values" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>ow-p21</t>
   </si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>3q3</t>
+  </si>
+  <si>
+    <t>kolumna z</t>
   </si>
 </sst>
 </file>
@@ -582,6 +586,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2488C64-44DF-455C-A958-8344855C2AC5}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5580652.2873999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5821887.6447999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5578449.6908999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5823076.0921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5578447.0045999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5823083.7895999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5576674.5014000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5823817.0061999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5575619.0859000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5824348.0288000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5574476.8038999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5824943.3712999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5574491.6003999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5824973.1221000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5574497.2929999996</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5574511.6316999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5824987.5932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5573926.3028999995</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5825135.8737000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C50E41-72E8-403E-AE81-64AABCC6AFB8}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -731,12 +885,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2488C64-44DF-455C-A958-8344855C2AC5}">
-  <dimension ref="A1:C12"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468392A3-0A75-402E-9F9E-100FBC6A72E4}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +898,7 @@
     <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -754,8 +908,11 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -765,8 +922,11 @@
       <c r="C2" s="1">
         <v>5821887.6447999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -776,41 +936,51 @@
       <c r="C3" s="1">
         <v>5823076.0921</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5578447.0045999996</v>
+        <v>5578449.6908999998</v>
       </c>
       <c r="C4" s="1">
         <v>5823083.7895999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>5576674.5014000004</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>5823817.0061999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>5575596.5728000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5824354.0723000001</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -820,8 +990,11 @@
       <c r="C7" s="1">
         <v>5824348.0288000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -831,8 +1004,11 @@
       <c r="C8" s="1">
         <v>5824943.3712999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -842,19 +1018,25 @@
       <c r="C9" s="1">
         <v>5824973.1221000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>5574497.2929999996</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>5824976.5066</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -864,8 +1046,11 @@
       <c r="C11" s="1">
         <v>5824987.5932</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -875,8 +1060,27 @@
       <c r="C12" s="1">
         <v>5825135.8737000003</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>